--- a/Set of undirected arcs.xlsx
+++ b/Set of undirected arcs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FA1530-9197-4F4E-A00B-04F8E10DE8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5E5530-2909-4556-B6C3-9222A28C7F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28020" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,26 +34,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -65,25 +52,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -385,108 +365,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B1" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1">
-        <v>7</v>
+      <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1">
-        <v>15</v>
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>34</v>
-      </c>
-      <c r="B3" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>38</v>
-      </c>
-      <c r="B4" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>49</v>
-      </c>
-      <c r="B5" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>59</v>
-      </c>
-      <c r="B6" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>65</v>
-      </c>
-      <c r="B7" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>75</v>
-      </c>
-      <c r="B8" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>93</v>
-      </c>
-      <c r="B9" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>97</v>
-      </c>
-      <c r="B10" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>46</v>
-      </c>
-      <c r="B12" s="1">
-        <v>47</v>
+      <c r="A3">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
